--- a/GXP_Audit_Data.xlsx
+++ b/GXP_Audit_Data.xlsx
@@ -1290,16 +1290,6 @@
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
 <headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7D0085D0-7B76-4F89-AAFD-6C7B9E1126CA}" diskRevisions="1" revisionId="743" version="2">
-  <header guid="{EBF826CB-E88C-4279-8BE0-B29C78184AE3}" dateTime="2018-08-15T17:36:03" maxSheetId="2" userName="Hamnett, Thomas" r:id="rId16">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D0A695E1-5D1D-4DD7-AB24-5DB253A586B3}" dateTime="2018-08-15T17:36:24" maxSheetId="2" userName="Hamnett, Thomas" r:id="rId17">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
   <header guid="{7D0085D0-7B76-4F89-AAFD-6C7B9E1126CA}" dateTime="2018-08-20T10:35:59" maxSheetId="2" userName="Littlefield, Denise" r:id="rId18">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -1314,27 +1304,6 @@
     <formula>'2017 GxP Audits'!$A$1:$AA$1000</formula>
   </rdn>
   <rcv guid="{CBF9A07D-7498-4712-ADD2-D5B851DF75EE}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_2EB6CFFB_5289_4D71_B91C_3C66993BDE6B_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'2017 GxP Audits'!$A$1:$AA$1000</formula>
-  </rdn>
-  <rcv guid="{2EB6CFFB-5289-4D71-B91C-3C66993BDE6B}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="1" sqref="A1:W97" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-  </rfmt>
 </revisions>
 </file>
 
